--- a/nova/logs/excel_logs/excel_linear.xlsx
+++ b/nova/logs/excel_logs/excel_linear.xlsx
@@ -9762,25 +9762,25 @@
         <v>57</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>

--- a/nova/logs/excel_logs/excel_linear.xlsx
+++ b/nova/logs/excel_logs/excel_linear.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" windowHeight="10275" windowWidth="19605" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ark1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -253,14 +253,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400">
                 <a:solidFill>
@@ -283,8 +283,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -310,7 +310,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -322,10 +322,10 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -463,7 +463,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -475,10 +475,10 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -616,7 +616,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -628,10 +628,10 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
@@ -769,7 +769,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -781,10 +781,10 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
@@ -922,7 +922,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -934,10 +934,10 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent5"/>
                 </a:solidFill>
@@ -1075,7 +1075,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -1087,10 +1087,10 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent6"/>
                 </a:solidFill>
@@ -1228,7 +1228,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -1242,12 +1242,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
@@ -1387,7 +1387,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -1401,12 +1401,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
@@ -1546,7 +1546,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -1560,12 +1560,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
                     <a:lumMod val="60000"/>
@@ -1705,7 +1705,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -1719,12 +1719,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4">
                     <a:lumMod val="60000"/>
@@ -1864,7 +1864,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
@@ -1878,12 +1878,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent5">
                     <a:lumMod val="60000"/>
@@ -2023,7 +2023,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
@@ -2037,12 +2037,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
                     <a:lumMod val="60000"/>
@@ -2182,7 +2182,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
@@ -2197,13 +2197,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="80000"/>
@@ -2344,7 +2344,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="80000"/>
@@ -2359,13 +2359,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent2">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2">
                     <a:lumMod val="80000"/>
@@ -2506,7 +2506,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="80000"/>
@@ -2521,13 +2521,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent3">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
                     <a:lumMod val="80000"/>
@@ -2668,7 +2668,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="80000"/>
@@ -2683,13 +2683,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent4">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4">
                     <a:lumMod val="80000"/>
@@ -2830,7 +2830,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="80000"/>
@@ -2845,13 +2845,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent5">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent5">
                     <a:lumMod val="80000"/>
@@ -2992,7 +2992,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="80000"/>
@@ -3007,13 +3007,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent6">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
                     <a:lumMod val="80000"/>
@@ -3154,7 +3154,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
@@ -3168,12 +3168,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="80000"/>
@@ -3313,7 +3313,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="80000"/>
@@ -3327,12 +3327,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent2">
                   <a:lumMod val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2">
                     <a:lumMod val="80000"/>
@@ -3472,7 +3472,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="80000"/>
@@ -3486,12 +3486,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent3">
                   <a:lumMod val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
                     <a:lumMod val="80000"/>
@@ -3631,7 +3631,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="80000"/>
@@ -3645,12 +3645,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent4">
                   <a:lumMod val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4">
                     <a:lumMod val="80000"/>
@@ -3790,7 +3790,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="80000"/>
@@ -3804,12 +3804,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent5">
                   <a:lumMod val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent5">
                     <a:lumMod val="80000"/>
@@ -3949,7 +3949,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="80000"/>
@@ -3963,12 +3963,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent6">
                   <a:lumMod val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
                     <a:lumMod val="80000"/>
@@ -4108,7 +4108,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -4123,13 +4123,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
@@ -4270,7 +4270,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -4285,13 +4285,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
@@ -4432,7 +4432,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -4447,13 +4447,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
                     <a:lumMod val="60000"/>
@@ -4594,7 +4594,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -4609,13 +4609,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4">
                     <a:lumMod val="60000"/>
@@ -4756,7 +4756,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
@@ -4771,13 +4771,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent5">
                     <a:lumMod val="60000"/>
@@ -4918,7 +4918,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
@@ -4933,13 +4933,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
                     <a:lumMod val="60000"/>
@@ -5080,7 +5080,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="50000"/>
@@ -5094,12 +5094,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent1">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="50000"/>
@@ -5239,7 +5239,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="50000"/>
@@ -5253,12 +5253,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent2">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2">
                     <a:lumMod val="50000"/>
@@ -5398,7 +5398,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="50000"/>
@@ -5412,12 +5412,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent3">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
                     <a:lumMod val="50000"/>
@@ -5557,7 +5557,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="50000"/>
@@ -5571,12 +5571,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent4">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4">
                     <a:lumMod val="50000"/>
@@ -5716,7 +5716,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="50000"/>
@@ -5730,12 +5730,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent5">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent5">
                     <a:lumMod val="50000"/>
@@ -5875,7 +5875,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="50000"/>
@@ -5889,12 +5889,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent6">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
                     <a:lumMod val="50000"/>
@@ -6034,7 +6034,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="70000"/>
@@ -6049,13 +6049,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent1">
                   <a:lumMod val="70000"/>
                   <a:lumOff val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="70000"/>
@@ -6196,7 +6196,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="70000"/>
@@ -6211,13 +6211,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent2">
                   <a:lumMod val="70000"/>
                   <a:lumOff val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2">
                     <a:lumMod val="70000"/>
@@ -6358,7 +6358,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="70000"/>
@@ -6373,13 +6373,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent3">
                   <a:lumMod val="70000"/>
                   <a:lumOff val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
                     <a:lumMod val="70000"/>
@@ -6520,7 +6520,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="70000"/>
@@ -6535,13 +6535,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent4">
                   <a:lumMod val="70000"/>
                   <a:lumOff val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4">
                     <a:lumMod val="70000"/>
@@ -6682,7 +6682,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="70000"/>
@@ -6697,13 +6697,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent5">
                   <a:lumMod val="70000"/>
                   <a:lumOff val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent5">
                     <a:lumMod val="70000"/>
@@ -6844,7 +6844,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="70000"/>
@@ -6859,13 +6859,13 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent6">
                   <a:lumMod val="70000"/>
                   <a:lumOff val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
                     <a:lumMod val="70000"/>
@@ -7006,7 +7006,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="70000"/>
@@ -7020,12 +7020,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent1">
                   <a:lumMod val="70000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="70000"/>
@@ -7165,7 +7165,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="70000"/>
@@ -7179,12 +7179,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent2">
                   <a:lumMod val="70000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2">
                     <a:lumMod val="70000"/>
@@ -7324,7 +7324,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="70000"/>
@@ -7338,12 +7338,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent3">
                   <a:lumMod val="70000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
                     <a:lumMod val="70000"/>
@@ -7483,7 +7483,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="70000"/>
@@ -7497,12 +7497,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent4">
                   <a:lumMod val="70000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4">
                     <a:lumMod val="70000"/>
@@ -7642,7 +7642,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="70000"/>
@@ -7656,12 +7656,12 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent5">
                   <a:lumMod val="70000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent5">
                     <a:lumMod val="70000"/>
@@ -7811,8 +7811,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -7824,9 +7824,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
                 <a:solidFill>
@@ -7862,7 +7862,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="flat" cmpd="sng" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -7879,16 +7879,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
                 <a:solidFill>
@@ -7917,16 +7917,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
               <a:solidFill>
@@ -7954,7 +7954,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>0</col>
@@ -7974,9 +7974,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -8281,7 +8281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9178,7 +9178,7 @@
         <v>53</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -9238,10 +9238,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -9262,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -9274,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -10781,6 +10781,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nova/logs/excel_logs/excel_linear.xlsx
+++ b/nova/logs/excel_logs/excel_linear.xlsx
@@ -9178,7 +9178,7 @@
         <v>53</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>

--- a/nova/logs/excel_logs/excel_linear.xlsx
+++ b/nova/logs/excel_logs/excel_linear.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" windowHeight="10275" windowWidth="19605" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ark1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Ark1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>Salg</t>
   </si>
@@ -160,6 +160,9 @@
     <t>Farge fontene</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>0700-0800</t>
   </si>
   <si>
@@ -253,14 +256,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400">
                 <a:solidFill>
@@ -283,8 +286,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -310,7 +313,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -319,16 +322,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -396,7 +392,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="16"/>
                 <pt idx="0">
-                  <v>0</v>
+                  <v>1</v>
                 </pt>
                 <pt idx="1">
                   <v>0</v>
@@ -411,7 +407,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="5">
-                  <v>0</v>
+                  <v>4</v>
                 </pt>
                 <pt idx="6">
                   <v>0</v>
@@ -423,7 +419,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="9">
-                  <v>0</v>
+                  <v>4</v>
                 </pt>
                 <pt idx="10">
                   <v>0</v>
@@ -463,7 +459,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -472,16 +468,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -576,7 +565,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="9">
-                  <v>0</v>
+                  <v>4</v>
                 </pt>
                 <pt idx="10">
                   <v>0</v>
@@ -616,7 +605,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -625,16 +614,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -729,7 +711,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="9">
-                  <v>0</v>
+                  <v>1</v>
                 </pt>
                 <pt idx="10">
                   <v>0</v>
@@ -769,7 +751,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -778,16 +760,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -855,7 +830,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="16"/>
                 <pt idx="0">
-                  <v>0</v>
+                  <v>1</v>
                 </pt>
                 <pt idx="1">
                   <v>0</v>
@@ -882,7 +857,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="9">
-                  <v>0</v>
+                  <v>1</v>
                 </pt>
                 <pt idx="10">
                   <v>0</v>
@@ -922,7 +897,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -931,16 +906,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1008,7 +976,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="16"/>
                 <pt idx="0">
-                  <v>0</v>
+                  <v>2</v>
                 </pt>
                 <pt idx="1">
                   <v>0</v>
@@ -1023,7 +991,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="5">
-                  <v>0</v>
+                  <v>2</v>
                 </pt>
                 <pt idx="6">
                   <v>0</v>
@@ -1035,7 +1003,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="9">
-                  <v>0</v>
+                  <v>2</v>
                 </pt>
                 <pt idx="10">
                   <v>0</v>
@@ -1053,7 +1021,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="15">
-                  <v>0</v>
+                  <v>3</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1075,7 +1043,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -1084,16 +1052,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1161,7 +1122,7 @@
                 <formatCode>General</formatCode>
                 <ptCount val="16"/>
                 <pt idx="0">
-                  <v>0</v>
+                  <v>7</v>
                 </pt>
                 <pt idx="1">
                   <v>0</v>
@@ -1188,7 +1149,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="9">
-                  <v>0</v>
+                  <v>1</v>
                 </pt>
                 <pt idx="10">
                   <v>0</v>
@@ -1228,7 +1189,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -1239,20 +1200,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1347,7 +1297,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="9">
-                  <v>0</v>
+                  <v>1</v>
                 </pt>
                 <pt idx="10">
                   <v>0</v>
@@ -1387,7 +1337,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -1398,20 +1348,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1494,7 +1433,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="5">
-                  <v>0</v>
+                  <v>2</v>
                 </pt>
                 <pt idx="6">
                   <v>0</v>
@@ -1546,7 +1485,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -1557,20 +1496,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1705,7 +1633,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -1716,20 +1644,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1864,7 +1781,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
@@ -1875,20 +1792,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2023,7 +1929,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
@@ -2034,20 +1940,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2182,7 +2077,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
@@ -2194,22 +2089,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2344,7 +2226,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="80000"/>
@@ -2356,22 +2238,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2506,7 +2375,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="80000"/>
@@ -2518,22 +2387,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2668,7 +2524,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="80000"/>
@@ -2680,22 +2536,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2830,7 +2673,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="80000"/>
@@ -2842,22 +2685,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2992,7 +2822,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="80000"/>
@@ -3004,22 +2834,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -3154,7 +2971,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
@@ -3165,20 +2982,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -3313,7 +3119,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="80000"/>
@@ -3324,20 +3130,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -3472,7 +3267,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="80000"/>
@@ -3483,20 +3278,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -3579,7 +3363,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="5">
-                  <v>0</v>
+                  <v>2</v>
                 </pt>
                 <pt idx="6">
                   <v>0</v>
@@ -3631,7 +3415,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="80000"/>
@@ -3642,20 +3426,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -3738,7 +3511,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="5">
-                  <v>0</v>
+                  <v>2</v>
                 </pt>
                 <pt idx="6">
                   <v>0</v>
@@ -3790,7 +3563,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="80000"/>
@@ -3801,20 +3574,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -3949,7 +3711,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="80000"/>
@@ -3960,20 +3722,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -4108,7 +3859,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -4120,22 +3871,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -4270,7 +4008,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -4282,22 +4020,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -4432,7 +4157,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -4444,22 +4169,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -4594,7 +4306,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -4606,22 +4318,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -4756,7 +4455,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
@@ -4768,22 +4467,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -4866,7 +4552,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="5">
-                  <v>0</v>
+                  <v>2</v>
                 </pt>
                 <pt idx="6">
                   <v>0</v>
@@ -4918,7 +4604,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
@@ -4930,22 +4616,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -5080,7 +4753,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="50000"/>
@@ -5091,20 +4764,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -5239,7 +4901,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="50000"/>
@@ -5250,20 +4912,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -5398,7 +5049,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="50000"/>
@@ -5409,20 +5060,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -5505,7 +5145,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="5">
-                  <v>0</v>
+                  <v>2</v>
                 </pt>
                 <pt idx="6">
                   <v>0</v>
@@ -5557,7 +5197,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="50000"/>
@@ -5568,20 +5208,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -5716,7 +5345,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="50000"/>
@@ -5727,20 +5356,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -5875,7 +5493,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="50000"/>
@@ -5886,20 +5504,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -6034,7 +5641,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="70000"/>
@@ -6046,22 +5653,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="70000"/>
-                  <a:lumOff val="30000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="70000"/>
-                    <a:lumOff val="30000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -6196,7 +5790,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="70000"/>
@@ -6208,22 +5802,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="70000"/>
-                  <a:lumOff val="30000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="70000"/>
-                    <a:lumOff val="30000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -6358,7 +5939,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="70000"/>
@@ -6370,22 +5951,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="70000"/>
-                  <a:lumOff val="30000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="70000"/>
-                    <a:lumOff val="30000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -6520,7 +6088,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="70000"/>
@@ -6532,22 +6100,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="70000"/>
-                  <a:lumOff val="30000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="70000"/>
-                    <a:lumOff val="30000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -6682,7 +6237,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="70000"/>
@@ -6694,22 +6249,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="70000"/>
-                  <a:lumOff val="30000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="70000"/>
-                    <a:lumOff val="30000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -6844,7 +6386,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="70000"/>
@@ -6856,22 +6398,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="70000"/>
-                  <a:lumOff val="30000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="70000"/>
-                    <a:lumOff val="30000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -6954,7 +6483,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="5">
-                  <v>0</v>
+                  <v>1</v>
                 </pt>
                 <pt idx="6">
                   <v>0</v>
@@ -7006,7 +6535,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="70000"/>
@@ -7017,20 +6546,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="70000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="70000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -7165,7 +6683,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="70000"/>
@@ -7176,20 +6694,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="70000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="70000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -7324,7 +6831,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="70000"/>
@@ -7335,20 +6842,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="70000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="70000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -7483,7 +6979,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="70000"/>
@@ -7494,20 +6990,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="70000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="70000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -7642,7 +7127,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cap="rnd" w="28575">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="70000"/>
@@ -7653,20 +7138,9 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="circle"/>
-            <size val="5"/>
+            <symbol val="none"/>
             <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="70000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="70000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -7780,6 +7254,154 @@
                 </pt>
                 <pt idx="15">
                   <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="47"/>
+          <order val="47"/>
+          <tx>
+            <strRef>
+              <f>'Ark1'!$AW$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Total</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln cap="rnd" w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <strRef>
+              <f>'Ark1'!$A$2:$A$17</f>
+              <strCache>
+                <ptCount val="16"/>
+                <pt idx="0">
+                  <v>0700-0800</v>
+                </pt>
+                <pt idx="1">
+                  <v>0800-0900</v>
+                </pt>
+                <pt idx="2">
+                  <v>0900-1000</v>
+                </pt>
+                <pt idx="3">
+                  <v>1000-1100</v>
+                </pt>
+                <pt idx="4">
+                  <v>1100-1200</v>
+                </pt>
+                <pt idx="5">
+                  <v>1200-1300</v>
+                </pt>
+                <pt idx="6">
+                  <v>1300-1400</v>
+                </pt>
+                <pt idx="7">
+                  <v>1400-1500</v>
+                </pt>
+                <pt idx="8">
+                  <v>1500-1600</v>
+                </pt>
+                <pt idx="9">
+                  <v>1600-1700</v>
+                </pt>
+                <pt idx="10">
+                  <v>1700-1800</v>
+                </pt>
+                <pt idx="11">
+                  <v>1800-1900</v>
+                </pt>
+                <pt idx="12">
+                  <v>1900-2000</v>
+                </pt>
+                <pt idx="13">
+                  <v>2000-2100</v>
+                </pt>
+                <pt idx="14">
+                  <v>2100-2200</v>
+                </pt>
+                <pt idx="15">
+                  <v>2200-2300</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Ark1'!$AW$2:$AW$17</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="16"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
                 </pt>
               </numCache>
             </numRef>
@@ -7794,13 +7416,12 @@
           <showPercent val="0"/>
           <showBubbleSize val="0"/>
         </dLbls>
-        <marker val="1"/>
         <smooth val="0"/>
-        <axId val="837020943"/>
-        <axId val="838426895"/>
+        <axId val="1295278783"/>
+        <axId val="1035761439"/>
       </lineChart>
       <catAx>
-        <axId val="837020943"/>
+        <axId val="1295278783"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -7811,8 +7432,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="flat" cmpd="sng" w="9525">
+          <a:noFill/>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -7824,9 +7445,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
                 <a:solidFill>
@@ -7841,12 +7462,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </txPr>
-        <crossAx val="838426895"/>
+        <crossAx val="1035761439"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -7854,7 +7475,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="838426895"/>
+        <axId val="1035761439"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -7862,7 +7483,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -7879,16 +7500,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
                 <a:solidFill>
@@ -7903,12 +7524,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </txPr>
-        <crossAx val="837020943"/>
+        <crossAx val="1295278783"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -7917,16 +7538,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
               <a:solidFill>
@@ -7941,7 +7562,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="nb-NO"/>
         </a:p>
@@ -7954,19 +7575,19 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>0</col>
-      <colOff>219075</colOff>
-      <row>19</row>
-      <rowOff>23812</rowOff>
+      <colOff>561975</colOff>
+      <row>18</row>
+      <rowOff>185737</rowOff>
     </from>
     <to>
-      <col>9</col>
-      <colOff>390525</colOff>
-      <row>45</row>
-      <rowOff>19050</rowOff>
+      <col>13</col>
+      <colOff>447675</colOff>
+      <row>47</row>
+      <rowOff>47625</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -7974,9 +7595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -8281,15 +7902,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV17"/>
+  <dimension ref="A1:AW17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -8297,7 +7918,7 @@
     <col customWidth="1" max="5" min="5" width="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8442,10 +8063,13 @@
       <c r="AV1" t="s">
         <v>47</v>
       </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -8588,10 +8212,13 @@
       <c r="AV2" t="n">
         <v>0</v>
       </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -8734,10 +8361,13 @@
       <c r="AV3" t="n">
         <v>0</v>
       </c>
+      <c r="AW3" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -8880,10 +8510,13 @@
       <c r="AV4" t="n">
         <v>0</v>
       </c>
+      <c r="AW4" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -9026,10 +8659,13 @@
       <c r="AV5" t="n">
         <v>0</v>
       </c>
+      <c r="AW5" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -9172,10 +8808,13 @@
       <c r="AV6" t="n">
         <v>0</v>
       </c>
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" t="n">
         <v>4</v>
@@ -9318,10 +8957,13 @@
       <c r="AV7" t="n">
         <v>0</v>
       </c>
+      <c r="AW7" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -9464,10 +9106,13 @@
       <c r="AV8" t="n">
         <v>0</v>
       </c>
+      <c r="AW8" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -9610,10 +9255,13 @@
       <c r="AV9" t="n">
         <v>0</v>
       </c>
+      <c r="AW9" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -9756,10 +9404,13 @@
       <c r="AV10" t="n">
         <v>0</v>
       </c>
+      <c r="AW10" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -9902,10 +9553,13 @@
       <c r="AV11" t="n">
         <v>0</v>
       </c>
+      <c r="AW11" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -10048,10 +9702,13 @@
       <c r="AV12" t="n">
         <v>0</v>
       </c>
+      <c r="AW12" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -10194,10 +9851,13 @@
       <c r="AV13" t="n">
         <v>0</v>
       </c>
+      <c r="AW13" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -10340,10 +10000,13 @@
       <c r="AV14" t="n">
         <v>0</v>
       </c>
+      <c r="AW14" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -10486,10 +10149,13 @@
       <c r="AV15" t="n">
         <v>0</v>
       </c>
+      <c r="AW15" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -10632,10 +10298,13 @@
       <c r="AV16" t="n">
         <v>0</v>
       </c>
+      <c r="AW16" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -10650,10 +10319,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -10777,10 +10446,13 @@
       </c>
       <c r="AV17" t="n">
         <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/nova/logs/excel_logs/excel_linear.xlsx
+++ b/nova/logs/excel_logs/excel_linear.xlsx
@@ -7462,7 +7462,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
@@ -7524,7 +7524,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
@@ -7562,7 +7562,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="nb-NO"/>
         </a:p>
@@ -10009,7 +10009,7 @@
         <v>62</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:49">
